--- a/Document/Digital Serenade/WebMobile/Prod/T9_Prod_SerenadeDigitalWelcomePackage_WebMobile_3BO.xlsx
+++ b/Document/Digital Serenade/WebMobile/Prod/T9_Prod_SerenadeDigitalWelcomePackage_WebMobile_3BO.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="1384">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -7970,6 +7970,9 @@
 [2]ตรวจสอบหน้าเว็บ
 - โลโก้ AIS
 - ตรวจสอบรูปภาพตามจำนวนปุ่มที่มี</t>
+  </si>
+  <si>
+    <t>F6_PlatinumWebMobile_4_1_Y_1_12</t>
   </si>
 </sst>
 </file>
@@ -11069,65 +11072,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="24" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11140,6 +11092,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11194,6 +11149,111 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11203,13 +11263,40 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11221,10 +11308,22 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11233,113 +11332,17 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="27" fillId="19" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="24" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14921,27 +14924,27 @@
       <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="549" t="s">
+      <c r="C5" s="533" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="550"/>
-      <c r="E5" s="551"/>
+      <c r="D5" s="534"/>
+      <c r="E5" s="535"/>
       <c r="F5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="547"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="547"/>
+      <c r="H5" s="530"/>
+      <c r="I5" s="530"/>
+      <c r="J5" s="530"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="564"/>
-      <c r="D6" s="565"/>
-      <c r="E6" s="566"/>
+      <c r="C6" s="548"/>
+      <c r="D6" s="549"/>
+      <c r="E6" s="550"/>
       <c r="F6" s="26"/>
       <c r="G6" s="17"/>
       <c r="H6" s="24"/>
@@ -14953,27 +14956,27 @@
       <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="552">
+      <c r="C7" s="536">
         <v>1</v>
       </c>
-      <c r="D7" s="553"/>
-      <c r="E7" s="554"/>
+      <c r="D7" s="537"/>
+      <c r="E7" s="538"/>
       <c r="F7" s="26"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="547"/>
-      <c r="I7" s="547"/>
-      <c r="J7" s="547"/>
+      <c r="H7" s="530"/>
+      <c r="I7" s="530"/>
+      <c r="J7" s="530"/>
     </row>
     <row r="8" spans="1:10" ht="12.95" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="555" t="s">
+      <c r="C8" s="539" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="556"/>
-      <c r="E8" s="557"/>
+      <c r="D8" s="540"/>
+      <c r="E8" s="541"/>
       <c r="F8" s="26"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -15008,13 +15011,13 @@
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="558" t="s">
+      <c r="B11" s="542" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="559"/>
-      <c r="D11" s="563"/>
-      <c r="E11" s="563"/>
-      <c r="F11" s="560"/>
+      <c r="C11" s="543"/>
+      <c r="D11" s="547"/>
+      <c r="E11" s="547"/>
+      <c r="F11" s="544"/>
       <c r="G11" s="29"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -15025,10 +15028,10 @@
       <c r="B12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="524"/>
-      <c r="D12" s="561"/>
-      <c r="E12" s="561"/>
-      <c r="F12" s="562"/>
+      <c r="C12" s="525"/>
+      <c r="D12" s="545"/>
+      <c r="E12" s="545"/>
+      <c r="F12" s="546"/>
       <c r="G12" s="29"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -15039,10 +15042,10 @@
       <c r="B13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="524"/>
-      <c r="D13" s="561"/>
-      <c r="E13" s="561"/>
-      <c r="F13" s="562"/>
+      <c r="C13" s="525"/>
+      <c r="D13" s="545"/>
+      <c r="E13" s="545"/>
+      <c r="F13" s="546"/>
       <c r="G13" s="29"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -15053,10 +15056,10 @@
       <c r="B14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="524"/>
-      <c r="D14" s="561"/>
-      <c r="E14" s="561"/>
-      <c r="F14" s="562"/>
+      <c r="C14" s="525"/>
+      <c r="D14" s="545"/>
+      <c r="E14" s="545"/>
+      <c r="F14" s="546"/>
       <c r="G14" s="29"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -15067,10 +15070,10 @@
       <c r="B15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="524"/>
-      <c r="D15" s="561"/>
-      <c r="E15" s="561"/>
-      <c r="F15" s="562"/>
+      <c r="C15" s="525"/>
+      <c r="D15" s="545"/>
+      <c r="E15" s="545"/>
+      <c r="F15" s="546"/>
       <c r="G15" s="29"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -15081,10 +15084,10 @@
       <c r="B16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="531"/>
-      <c r="D16" s="532"/>
-      <c r="E16" s="532"/>
-      <c r="F16" s="533"/>
+      <c r="C16" s="556"/>
+      <c r="D16" s="557"/>
+      <c r="E16" s="557"/>
+      <c r="F16" s="558"/>
       <c r="G16" s="29"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -15104,13 +15107,13 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="558" t="s">
+      <c r="B18" s="542" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="559"/>
-      <c r="D18" s="559"/>
-      <c r="E18" s="559"/>
-      <c r="F18" s="560"/>
+      <c r="C18" s="543"/>
+      <c r="D18" s="543"/>
+      <c r="E18" s="543"/>
+      <c r="F18" s="544"/>
       <c r="G18" s="29"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -15127,10 +15130,10 @@
       <c r="D19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="536" t="s">
+      <c r="E19" s="531" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="548"/>
+      <c r="F19" s="532"/>
       <c r="G19" s="29"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -15141,8 +15144,8 @@
       <c r="B20" s="34"/>
       <c r="C20" s="35"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="524"/>
-      <c r="F20" s="525"/>
+      <c r="E20" s="525"/>
+      <c r="F20" s="526"/>
       <c r="G20" s="29"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -15153,8 +15156,8 @@
       <c r="B21" s="34"/>
       <c r="C21" s="35"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="524"/>
-      <c r="F21" s="525"/>
+      <c r="E21" s="525"/>
+      <c r="F21" s="526"/>
       <c r="G21" s="29"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -15165,8 +15168,8 @@
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="524"/>
-      <c r="F22" s="525"/>
+      <c r="E22" s="525"/>
+      <c r="F22" s="526"/>
       <c r="G22" s="29"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -15177,8 +15180,8 @@
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="524"/>
-      <c r="F23" s="525"/>
+      <c r="E23" s="525"/>
+      <c r="F23" s="526"/>
       <c r="G23" s="29"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
@@ -15189,8 +15192,8 @@
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="524"/>
-      <c r="F24" s="525"/>
+      <c r="E24" s="525"/>
+      <c r="F24" s="526"/>
       <c r="G24" s="29"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -15201,8 +15204,8 @@
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="524"/>
-      <c r="F25" s="525"/>
+      <c r="E25" s="525"/>
+      <c r="F25" s="526"/>
       <c r="G25" s="29"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
@@ -15213,8 +15216,8 @@
       <c r="B26" s="34"/>
       <c r="C26" s="35"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="524"/>
-      <c r="F26" s="525"/>
+      <c r="E26" s="525"/>
+      <c r="F26" s="526"/>
       <c r="G26" s="29"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -15225,8 +15228,8 @@
       <c r="B27" s="34"/>
       <c r="C27" s="35"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="524"/>
-      <c r="F27" s="525"/>
+      <c r="E27" s="525"/>
+      <c r="F27" s="526"/>
       <c r="G27" s="29"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -15237,8 +15240,8 @@
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="524"/>
-      <c r="F28" s="525"/>
+      <c r="E28" s="525"/>
+      <c r="F28" s="526"/>
       <c r="G28" s="29"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -15249,8 +15252,8 @@
       <c r="B29" s="37"/>
       <c r="C29" s="38"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="526"/>
-      <c r="F29" s="527"/>
+      <c r="E29" s="551"/>
+      <c r="F29" s="552"/>
       <c r="G29" s="29"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -15270,12 +15273,12 @@
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="541" t="s">
+      <c r="B31" s="565" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="542"/>
-      <c r="D31" s="542"/>
-      <c r="E31" s="543"/>
+      <c r="C31" s="566"/>
+      <c r="D31" s="566"/>
+      <c r="E31" s="567"/>
       <c r="F31" s="41"/>
       <c r="G31" s="29"/>
       <c r="H31" s="17"/>
@@ -15287,11 +15290,11 @@
       <c r="B32" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="536" t="s">
+      <c r="C32" s="531" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="537"/>
-      <c r="E32" s="537"/>
+      <c r="D32" s="561"/>
+      <c r="E32" s="561"/>
       <c r="F32" s="42" t="s">
         <v>25</v>
       </c>
@@ -15303,9 +15306,9 @@
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="34"/>
-      <c r="C33" s="534"/>
-      <c r="D33" s="535"/>
-      <c r="E33" s="535"/>
+      <c r="C33" s="559"/>
+      <c r="D33" s="560"/>
+      <c r="E33" s="560"/>
       <c r="F33" s="43"/>
       <c r="G33" s="29"/>
       <c r="H33" s="17"/>
@@ -15315,9 +15318,9 @@
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="538"/>
-      <c r="D34" s="539"/>
-      <c r="E34" s="540"/>
+      <c r="C34" s="562"/>
+      <c r="D34" s="563"/>
+      <c r="E34" s="564"/>
       <c r="F34" s="43"/>
       <c r="G34" s="29"/>
       <c r="H34" s="17"/>
@@ -15327,9 +15330,9 @@
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="34"/>
-      <c r="C35" s="534"/>
-      <c r="D35" s="535"/>
-      <c r="E35" s="535"/>
+      <c r="C35" s="559"/>
+      <c r="D35" s="560"/>
+      <c r="E35" s="560"/>
       <c r="F35" s="43"/>
       <c r="G35" s="29"/>
       <c r="H35" s="17"/>
@@ -15339,9 +15342,9 @@
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="534"/>
-      <c r="D36" s="535"/>
-      <c r="E36" s="535"/>
+      <c r="C36" s="559"/>
+      <c r="D36" s="560"/>
+      <c r="E36" s="560"/>
       <c r="F36" s="43"/>
       <c r="G36" s="29"/>
       <c r="H36" s="17"/>
@@ -15351,9 +15354,9 @@
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="544"/>
-      <c r="D37" s="545"/>
-      <c r="E37" s="546"/>
+      <c r="C37" s="527"/>
+      <c r="D37" s="528"/>
+      <c r="E37" s="529"/>
       <c r="F37" s="43"/>
       <c r="G37" s="29"/>
       <c r="H37" s="17"/>
@@ -15363,9 +15366,9 @@
     <row r="38" spans="1:10" ht="12.95" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="37"/>
-      <c r="C38" s="528"/>
-      <c r="D38" s="529"/>
-      <c r="E38" s="530"/>
+      <c r="C38" s="553"/>
+      <c r="D38" s="554"/>
+      <c r="E38" s="555"/>
       <c r="F38" s="44"/>
       <c r="G38" s="29"/>
       <c r="H38" s="17"/>
@@ -15410,6 +15413,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="C37:E37"/>
@@ -15426,22 +15445,6 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -15479,13 +15482,13 @@
       <c r="F1" s="17"/>
       <c r="G1" s="2"/>
       <c r="H1" s="140"/>
-      <c r="I1" s="613" t="s">
+      <c r="I1" s="614" t="s">
         <v>374</v>
       </c>
-      <c r="J1" s="614"/>
-      <c r="K1" s="614"/>
-      <c r="L1" s="614"/>
-      <c r="M1" s="614"/>
+      <c r="J1" s="615"/>
+      <c r="K1" s="615"/>
+      <c r="L1" s="615"/>
+      <c r="M1" s="615"/>
       <c r="N1" s="141"/>
       <c r="O1" s="141"/>
       <c r="P1" s="141"/>
@@ -18713,10 +18716,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1">
-      <c r="A1" s="598" t="s">
+      <c r="A1" s="595" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="599"/>
+      <c r="B1" s="596"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -18752,250 +18755,250 @@
       <c r="AI1" s="53"/>
     </row>
     <row r="2" spans="1:35" ht="10.5" customHeight="1">
-      <c r="A2" s="573" t="s">
+      <c r="A2" s="601" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="573" t="s">
+      <c r="B2" s="601" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="573" t="s">
+      <c r="C2" s="601" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="588" t="s">
+      <c r="D2" s="612" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="589"/>
-      <c r="F2" s="589"/>
-      <c r="G2" s="567" t="s">
+      <c r="E2" s="613"/>
+      <c r="F2" s="613"/>
+      <c r="G2" s="586" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="568"/>
-      <c r="I2" s="568"/>
-      <c r="J2" s="569"/>
-      <c r="K2" s="582" t="s">
+      <c r="H2" s="587"/>
+      <c r="I2" s="587"/>
+      <c r="J2" s="588"/>
+      <c r="K2" s="599" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="583"/>
-      <c r="M2" s="567" t="s">
+      <c r="L2" s="600"/>
+      <c r="M2" s="586" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="568"/>
-      <c r="O2" s="569"/>
-      <c r="P2" s="567" t="s">
+      <c r="N2" s="587"/>
+      <c r="O2" s="588"/>
+      <c r="P2" s="586" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="569"/>
-      <c r="R2" s="567" t="s">
+      <c r="Q2" s="588"/>
+      <c r="R2" s="586" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="569"/>
-      <c r="T2" s="567" t="s">
+      <c r="S2" s="588"/>
+      <c r="T2" s="586" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="568"/>
-      <c r="V2" s="568"/>
-      <c r="W2" s="568"/>
-      <c r="X2" s="569"/>
-      <c r="Y2" s="567" t="s">
+      <c r="U2" s="587"/>
+      <c r="V2" s="587"/>
+      <c r="W2" s="587"/>
+      <c r="X2" s="588"/>
+      <c r="Y2" s="586" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="568"/>
-      <c r="AA2" s="568"/>
-      <c r="AB2" s="569"/>
-      <c r="AC2" s="602" t="s">
+      <c r="Z2" s="587"/>
+      <c r="AA2" s="587"/>
+      <c r="AB2" s="588"/>
+      <c r="AC2" s="570" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="603"/>
-      <c r="AE2" s="603"/>
-      <c r="AF2" s="610"/>
-      <c r="AG2" s="602" t="s">
+      <c r="AD2" s="571"/>
+      <c r="AE2" s="571"/>
+      <c r="AF2" s="590"/>
+      <c r="AG2" s="570" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="603"/>
-      <c r="AI2" s="604"/>
+      <c r="AH2" s="571"/>
+      <c r="AI2" s="572"/>
     </row>
     <row r="3" spans="1:35" ht="10.5" customHeight="1">
-      <c r="A3" s="574"/>
-      <c r="B3" s="574"/>
-      <c r="C3" s="574"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="589"/>
-      <c r="F3" s="589"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="571"/>
-      <c r="J3" s="572"/>
-      <c r="K3" s="582" t="s">
+      <c r="A3" s="602"/>
+      <c r="B3" s="602"/>
+      <c r="C3" s="602"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="613"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="574"/>
+      <c r="I3" s="574"/>
+      <c r="J3" s="589"/>
+      <c r="K3" s="599" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="583"/>
-      <c r="M3" s="570"/>
-      <c r="N3" s="571"/>
-      <c r="O3" s="572"/>
-      <c r="P3" s="570"/>
-      <c r="Q3" s="572"/>
-      <c r="R3" s="570"/>
-      <c r="S3" s="572"/>
-      <c r="T3" s="570"/>
-      <c r="U3" s="571"/>
-      <c r="V3" s="571"/>
-      <c r="W3" s="571"/>
-      <c r="X3" s="572"/>
-      <c r="Y3" s="570"/>
-      <c r="Z3" s="571"/>
-      <c r="AA3" s="571"/>
-      <c r="AB3" s="572"/>
-      <c r="AC3" s="570"/>
-      <c r="AD3" s="571"/>
-      <c r="AE3" s="571"/>
-      <c r="AF3" s="572"/>
-      <c r="AG3" s="570"/>
-      <c r="AH3" s="571"/>
-      <c r="AI3" s="605"/>
+      <c r="L3" s="600"/>
+      <c r="M3" s="573"/>
+      <c r="N3" s="574"/>
+      <c r="O3" s="589"/>
+      <c r="P3" s="573"/>
+      <c r="Q3" s="589"/>
+      <c r="R3" s="573"/>
+      <c r="S3" s="589"/>
+      <c r="T3" s="573"/>
+      <c r="U3" s="574"/>
+      <c r="V3" s="574"/>
+      <c r="W3" s="574"/>
+      <c r="X3" s="589"/>
+      <c r="Y3" s="573"/>
+      <c r="Z3" s="574"/>
+      <c r="AA3" s="574"/>
+      <c r="AB3" s="589"/>
+      <c r="AC3" s="573"/>
+      <c r="AD3" s="574"/>
+      <c r="AE3" s="574"/>
+      <c r="AF3" s="589"/>
+      <c r="AG3" s="573"/>
+      <c r="AH3" s="574"/>
+      <c r="AI3" s="575"/>
     </row>
     <row r="4" spans="1:35" ht="14.25" customHeight="1">
-      <c r="A4" s="574"/>
-      <c r="B4" s="574"/>
-      <c r="C4" s="574"/>
-      <c r="D4" s="584" t="s">
+      <c r="A4" s="602"/>
+      <c r="B4" s="602"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="568" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="584" t="s">
+      <c r="E4" s="568" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="584" t="s">
+      <c r="F4" s="568" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="600" t="s">
+      <c r="G4" s="576" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="600" t="s">
+      <c r="H4" s="576" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="600" t="s">
+      <c r="I4" s="576" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="600" t="s">
+      <c r="J4" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="586" t="s">
+      <c r="K4" s="597" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="586" t="s">
+      <c r="L4" s="597" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="580" t="s">
+      <c r="M4" s="593" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="580" t="s">
+      <c r="N4" s="593" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="580" t="s">
+      <c r="O4" s="593" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="611" t="s">
+      <c r="P4" s="591" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="611" t="s">
+      <c r="Q4" s="591" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="578" t="s">
+      <c r="R4" s="610" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="578" t="s">
+      <c r="S4" s="610" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="596" t="s">
+      <c r="T4" s="608" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="592" t="s">
+      <c r="U4" s="604" t="s">
         <v>58</v>
       </c>
-      <c r="V4" s="593"/>
-      <c r="W4" s="576" t="s">
+      <c r="V4" s="605"/>
+      <c r="W4" s="606" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="576" t="s">
+      <c r="X4" s="606" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="594" t="s">
+      <c r="Y4" s="582" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="594" t="s">
+      <c r="Z4" s="582" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="606" t="s">
+      <c r="AA4" s="578" t="s">
         <v>62</v>
       </c>
-      <c r="AB4" s="607"/>
-      <c r="AC4" s="590" t="s">
+      <c r="AB4" s="579"/>
+      <c r="AC4" s="580" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="590" t="s">
+      <c r="AD4" s="580" t="s">
         <v>61</v>
       </c>
-      <c r="AE4" s="608" t="s">
+      <c r="AE4" s="584" t="s">
         <v>62</v>
       </c>
-      <c r="AF4" s="609"/>
-      <c r="AG4" s="584" t="s">
+      <c r="AF4" s="585"/>
+      <c r="AG4" s="568" t="s">
         <v>41</v>
       </c>
-      <c r="AH4" s="584" t="s">
+      <c r="AH4" s="568" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="584" t="s">
+      <c r="AI4" s="568" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="99" customHeight="1">
-      <c r="A5" s="575"/>
-      <c r="B5" s="575"/>
-      <c r="C5" s="575"/>
-      <c r="D5" s="585"/>
-      <c r="E5" s="585"/>
-      <c r="F5" s="585"/>
-      <c r="G5" s="601"/>
-      <c r="H5" s="601"/>
-      <c r="I5" s="601"/>
-      <c r="J5" s="601"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="587"/>
-      <c r="M5" s="581"/>
-      <c r="N5" s="581"/>
-      <c r="O5" s="581"/>
-      <c r="P5" s="612"/>
-      <c r="Q5" s="612"/>
-      <c r="R5" s="579"/>
-      <c r="S5" s="579"/>
-      <c r="T5" s="597"/>
+      <c r="A5" s="603"/>
+      <c r="B5" s="603"/>
+      <c r="C5" s="603"/>
+      <c r="D5" s="569"/>
+      <c r="E5" s="569"/>
+      <c r="F5" s="569"/>
+      <c r="G5" s="577"/>
+      <c r="H5" s="577"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="598"/>
+      <c r="M5" s="594"/>
+      <c r="N5" s="594"/>
+      <c r="O5" s="594"/>
+      <c r="P5" s="592"/>
+      <c r="Q5" s="592"/>
+      <c r="R5" s="611"/>
+      <c r="S5" s="611"/>
+      <c r="T5" s="609"/>
       <c r="U5" s="54" t="s">
         <v>63</v>
       </c>
       <c r="V5" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="577"/>
-      <c r="X5" s="577"/>
-      <c r="Y5" s="595"/>
-      <c r="Z5" s="595"/>
+      <c r="W5" s="607"/>
+      <c r="X5" s="607"/>
+      <c r="Y5" s="583"/>
+      <c r="Z5" s="583"/>
       <c r="AA5" s="55" t="s">
         <v>65</v>
       </c>
       <c r="AB5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="AC5" s="591"/>
-      <c r="AD5" s="591"/>
+      <c r="AC5" s="581"/>
+      <c r="AD5" s="581"/>
       <c r="AE5" s="56" t="s">
         <v>65</v>
       </c>
       <c r="AF5" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AG5" s="585"/>
-      <c r="AH5" s="585"/>
-      <c r="AI5" s="585"/>
+      <c r="AG5" s="569"/>
+      <c r="AH5" s="569"/>
+      <c r="AI5" s="569"/>
     </row>
     <row r="6" spans="1:35" ht="12.95" customHeight="1">
       <c r="A6" s="57" t="s">
@@ -20247,6 +20250,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="Y2:AB3"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="I4:I5"/>
@@ -20263,34 +20294,6 @@
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="R2:S3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Y2:AB3"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -23284,7 +23287,7 @@
       <c r="D56" s="319" t="s">
         <v>1129</v>
       </c>
-      <c r="E56" s="615" t="s">
+      <c r="E56" s="524" t="s">
         <v>1382</v>
       </c>
       <c r="F56" s="155"/>
@@ -32525,7 +32528,7 @@
       <c r="D59" s="329" t="s">
         <v>1283</v>
       </c>
-      <c r="E59" s="615" t="s">
+      <c r="E59" s="524" t="s">
         <v>1382</v>
       </c>
       <c r="F59" s="329"/>
@@ -39671,7 +39674,7 @@
   <dimension ref="A1:IU124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="A54" sqref="A54:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -40790,7 +40793,7 @@
       <c r="D52" s="319" t="s">
         <v>1340</v>
       </c>
-      <c r="E52" s="615" t="s">
+      <c r="E52" s="524" t="s">
         <v>1382</v>
       </c>
       <c r="F52" s="500"/>
@@ -40848,7 +40851,7 @@
     </row>
     <row r="55" spans="1:11" s="157" customFormat="1" ht="41.25" customHeight="1">
       <c r="A55" s="309" t="s">
-        <v>1022</v>
+        <v>1383</v>
       </c>
       <c r="B55" s="153" t="s">
         <v>1344</v>
